--- a/server/emails.xlsx
+++ b/server/emails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4" count="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5" count="5">
   <x:si>
     <x:t>email</x:t>
   </x:si>
@@ -26,6 +26,9 @@
   </x:si>
   <x:si>
     <x:t>communityoflove70@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sright@gmail.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -408,6 +411,16 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/server/emails.xlsx
+++ b/server/emails.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5" count="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
   <x:si>
     <x:t>email</x:t>
   </x:si>
   <x:si>
-    <x:t>juliannedrager@designinglory.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Emiles.Creations.1987@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>communityoflove70@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sright@gmail.com</x:t>
+    <x:t>janeDoe@aol.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JohnDoe@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cd1184@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>julie@gamil.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bright@aol.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -418,7 +421,7 @@
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/server/emails.xlsx
+++ b/server/emails.xlsx
@@ -23,15 +23,6 @@
   </x:si>
   <x:si>
     <x:t>JohnDoe@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cd1184@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>julie@gamil.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bright@aol.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -409,21 +400,6 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1">
-      <x:c r="A4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
-      <x:c r="A6" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
